--- a/biology/Botanique/Passiflora_quadrangularis/Passiflora_quadrangularis.xlsx
+++ b/biology/Botanique/Passiflora_quadrangularis/Passiflora_quadrangularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passiflora quadrangularis
 La barbadine, ou grenadille géante (Passiflora quadrangularis), est une espèce de plantes à fleurs de la famille des Passifloraceae et c'est le fruit de cette liane tropicale.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La barbadine, ou grenadille géante, est originaire d'Amérique du Sud ou d'Amérique centrale et Afrique centrale, et est arrivée aux Antilles vers la fin du XIXe siècle [pas clair].  
 </t>
@@ -543,7 +557,9 @@
           <t>Traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anglais : Granadilla
 Espagnol : Granadillo, Pasionaria, Badea</t>
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La barbadine est le plus gros des fruits de la passion : 10 à 30 cm de long, 7 à 15 cm de diamètre. 
 C’est une plante grimpante qui peut atteindre 45 m de haut. 
@@ -607,7 +625,9 @@
           <t>Conditions de culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est cultivée dans toutes les régions tropicales où elle pousse et fructifie jusque vers 800 m, de préférence sur terrains argilo-sableux. Elle préfère les zones ombragées et abritées des vents. La multiplication se fait par semis des graines, ou plus facilement par bouturage, marcottage et greffage qui permet d'obtenir des fruits dès la deuxième année après un floraison qui s'étend de juillet à décembre.
 </t>
@@ -638,7 +658,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise sa pulpe pour confectionner du sirop, du jus et des confitures. 
 La racine, les feuilles sont aussi utilisées. 
@@ -671,7 +693,9 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits et les bourgeons des feuilles peuvent être utilisés comme calmant.
 Les feuilles seraient utilisées dans le cas de douleurs articulaires. 
